--- a/database/industries/palayesh/shapna/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/palayesh/shapna/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shapna\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D98BE1-09B5-4C67-95E2-8F44AB268203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF1C12-A778-445E-ADBA-9323511D215A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-18 (5)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-29 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>336848541</v>
+        <v>687039292</v>
       </c>
       <c r="E11" s="13">
-        <v>687039292</v>
+        <v>1109548371</v>
       </c>
       <c r="F11" s="13">
-        <v>1109548371</v>
+        <v>415614688</v>
       </c>
       <c r="G11" s="13">
-        <v>415614688</v>
+        <v>851078682</v>
       </c>
       <c r="H11" s="13">
-        <v>851078682</v>
+        <v>1423831987</v>
       </c>
       <c r="I11" s="13">
-        <v>1423831987</v>
+        <v>2130779345</v>
       </c>
       <c r="J11" s="13">
-        <v>2130779345</v>
+        <v>940871884</v>
       </c>
       <c r="K11" s="13">
-        <v>940871884</v>
+        <v>1775316160</v>
       </c>
       <c r="L11" s="13">
-        <v>1775316160</v>
+        <v>2533766061</v>
       </c>
       <c r="M11" s="13">
-        <v>2533766061</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3397308491</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-319812311</v>
+        <v>-620340502</v>
       </c>
       <c r="E12" s="11">
-        <v>-620340502</v>
+        <v>-981308661</v>
       </c>
       <c r="F12" s="11">
-        <v>-981308661</v>
+        <v>-382410909</v>
       </c>
       <c r="G12" s="11">
-        <v>-382410909</v>
+        <v>-791883469</v>
       </c>
       <c r="H12" s="11">
-        <v>-791883469</v>
+        <v>-1312772384</v>
       </c>
       <c r="I12" s="11">
-        <v>-1312772384</v>
+        <v>-1936806043</v>
       </c>
       <c r="J12" s="11">
-        <v>-1936806043</v>
+        <v>-763143312</v>
       </c>
       <c r="K12" s="11">
-        <v>-763143312</v>
+        <v>-1518926685</v>
       </c>
       <c r="L12" s="11">
-        <v>-1518926685</v>
+        <v>-2208820320</v>
       </c>
       <c r="M12" s="11">
-        <v>-2208820320</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-2952758372</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>17036230</v>
+        <v>66698790</v>
       </c>
       <c r="E13" s="15">
-        <v>66698790</v>
+        <v>128239710</v>
       </c>
       <c r="F13" s="15">
-        <v>128239710</v>
+        <v>33203779</v>
       </c>
       <c r="G13" s="15">
-        <v>33203779</v>
+        <v>59195213</v>
       </c>
       <c r="H13" s="15">
-        <v>59195213</v>
+        <v>111059603</v>
       </c>
       <c r="I13" s="15">
-        <v>111059603</v>
+        <v>193973302</v>
       </c>
       <c r="J13" s="15">
-        <v>193973302</v>
+        <v>177728572</v>
       </c>
       <c r="K13" s="15">
-        <v>177728572</v>
+        <v>256389475</v>
       </c>
       <c r="L13" s="15">
-        <v>256389475</v>
+        <v>324945741</v>
       </c>
       <c r="M13" s="15">
-        <v>324945741</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>444550119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3521050</v>
+        <v>-5818884</v>
       </c>
       <c r="E14" s="11">
-        <v>-5818884</v>
+        <v>-8311647</v>
       </c>
       <c r="F14" s="11">
-        <v>-8311647</v>
+        <v>-3038791</v>
       </c>
       <c r="G14" s="11">
-        <v>-3038791</v>
+        <v>-6684354</v>
       </c>
       <c r="H14" s="11">
-        <v>-6684354</v>
+        <v>-10366300</v>
       </c>
       <c r="I14" s="11">
-        <v>-10366300</v>
+        <v>-12618898</v>
       </c>
       <c r="J14" s="11">
-        <v>-12618898</v>
+        <v>-8047953</v>
       </c>
       <c r="K14" s="11">
-        <v>-8047953</v>
+        <v>-10783520</v>
       </c>
       <c r="L14" s="11">
-        <v>-10783520</v>
+        <v>-16899530</v>
       </c>
       <c r="M14" s="11">
-        <v>-16899530</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-26169707</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,31 +1003,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>33874446</v>
+        <v>34019793</v>
       </c>
       <c r="E16" s="11">
-        <v>34019793</v>
+        <v>38672654</v>
       </c>
       <c r="F16" s="11">
-        <v>38672654</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>12284771</v>
       </c>
       <c r="I16" s="11">
-        <v>12284771</v>
+        <v>11984547</v>
       </c>
       <c r="J16" s="11">
-        <v>11984547</v>
+        <v>-61018</v>
       </c>
       <c r="K16" s="11">
         <v>-61018</v>
@@ -1035,46 +1036,46 @@
         <v>-61018</v>
       </c>
       <c r="M16" s="11">
-        <v>-61018</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-221693</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>47389626</v>
+        <v>94899699</v>
       </c>
       <c r="E17" s="15">
-        <v>94899699</v>
+        <v>158600717</v>
       </c>
       <c r="F17" s="15">
-        <v>158600717</v>
+        <v>30164988</v>
       </c>
       <c r="G17" s="15">
-        <v>30164988</v>
+        <v>52510859</v>
       </c>
       <c r="H17" s="15">
-        <v>52510859</v>
+        <v>112978074</v>
       </c>
       <c r="I17" s="15">
-        <v>112978074</v>
+        <v>193338951</v>
       </c>
       <c r="J17" s="15">
-        <v>193338951</v>
+        <v>169619601</v>
       </c>
       <c r="K17" s="15">
-        <v>169619601</v>
+        <v>245544937</v>
       </c>
       <c r="L17" s="15">
-        <v>245544937</v>
+        <v>307985193</v>
       </c>
       <c r="M17" s="15">
-        <v>307985193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>418158719</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1083,178 +1084,178 @@
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>-88767</v>
       </c>
       <c r="F18" s="11">
         <v>-88767</v>
       </c>
       <c r="G18" s="11">
-        <v>-88767</v>
+        <v>-1972919</v>
       </c>
       <c r="H18" s="11">
-        <v>-1972919</v>
+        <v>-4289273</v>
       </c>
       <c r="I18" s="11">
-        <v>-4289273</v>
+        <v>-6545203</v>
       </c>
       <c r="J18" s="11">
-        <v>-6545203</v>
+        <v>-3803820</v>
       </c>
       <c r="K18" s="11">
-        <v>-3803820</v>
+        <v>-8088578</v>
       </c>
       <c r="L18" s="11">
-        <v>-8088578</v>
+        <v>-11928784</v>
       </c>
       <c r="M18" s="11">
-        <v>-11928784</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-16411649</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>4264835</v>
+        <v>9775873</v>
       </c>
       <c r="E19" s="13">
-        <v>9775873</v>
+        <v>7280248</v>
       </c>
       <c r="F19" s="13">
-        <v>7280248</v>
+        <v>1494094</v>
       </c>
       <c r="G19" s="13">
-        <v>1494094</v>
+        <v>4664755</v>
       </c>
       <c r="H19" s="13">
-        <v>4664755</v>
+        <v>9223467</v>
       </c>
       <c r="I19" s="13">
-        <v>9223467</v>
+        <v>8061224</v>
       </c>
       <c r="J19" s="13">
-        <v>8476846</v>
+        <v>-1822907</v>
       </c>
       <c r="K19" s="13">
-        <v>-1822907</v>
+        <v>9540518</v>
       </c>
       <c r="L19" s="13">
-        <v>9540518</v>
+        <v>10095553</v>
       </c>
       <c r="M19" s="13">
-        <v>10095553</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>25883616</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>51654461</v>
+        <v>104675572</v>
       </c>
       <c r="E20" s="17">
-        <v>104675572</v>
+        <v>165792198</v>
       </c>
       <c r="F20" s="17">
-        <v>165792198</v>
+        <v>31570315</v>
       </c>
       <c r="G20" s="17">
-        <v>31570315</v>
+        <v>55202695</v>
       </c>
       <c r="H20" s="17">
-        <v>55202695</v>
+        <v>117912268</v>
       </c>
       <c r="I20" s="17">
-        <v>117912268</v>
+        <v>194854972</v>
       </c>
       <c r="J20" s="17">
-        <v>195270594</v>
+        <v>163992874</v>
       </c>
       <c r="K20" s="17">
-        <v>163992874</v>
+        <v>246996877</v>
       </c>
       <c r="L20" s="17">
-        <v>246996877</v>
+        <v>306151962</v>
       </c>
       <c r="M20" s="17">
-        <v>306151962</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>427630686</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-8221913</v>
+        <v>-18593278</v>
       </c>
       <c r="E21" s="13">
-        <v>-18593278</v>
+        <v>-17342856</v>
       </c>
       <c r="F21" s="13">
-        <v>-17342856</v>
+        <v>-5952301</v>
       </c>
       <c r="G21" s="13">
-        <v>-5952301</v>
+        <v>-10021220</v>
       </c>
       <c r="H21" s="13">
-        <v>-10021220</v>
+        <v>-21903514</v>
       </c>
       <c r="I21" s="13">
-        <v>-21903514</v>
+        <v>-29274798</v>
       </c>
       <c r="J21" s="13">
-        <v>-29274798</v>
+        <v>-32677561</v>
       </c>
       <c r="K21" s="13">
-        <v>-32677561</v>
+        <v>-35740863</v>
       </c>
       <c r="L21" s="13">
-        <v>-35740863</v>
+        <v>-44255015</v>
       </c>
       <c r="M21" s="13">
-        <v>-44255015</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-45768701</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>43432548</v>
+        <v>86082294</v>
       </c>
       <c r="E22" s="17">
-        <v>86082294</v>
+        <v>148449342</v>
       </c>
       <c r="F22" s="17">
-        <v>148449342</v>
+        <v>25618014</v>
       </c>
       <c r="G22" s="17">
-        <v>25618014</v>
+        <v>45181475</v>
       </c>
       <c r="H22" s="17">
-        <v>45181475</v>
+        <v>96008754</v>
       </c>
       <c r="I22" s="17">
-        <v>96008754</v>
+        <v>165580174</v>
       </c>
       <c r="J22" s="17">
-        <v>165995796</v>
+        <v>131315313</v>
       </c>
       <c r="K22" s="17">
-        <v>131315313</v>
+        <v>211256014</v>
       </c>
       <c r="L22" s="17">
-        <v>211256014</v>
+        <v>261896947</v>
       </c>
       <c r="M22" s="17">
-        <v>261896947</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>381861985</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,94 +1291,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>43432548</v>
+        <v>86082294</v>
       </c>
       <c r="E24" s="17">
-        <v>86082294</v>
+        <v>148449342</v>
       </c>
       <c r="F24" s="17">
-        <v>148449342</v>
+        <v>25618014</v>
       </c>
       <c r="G24" s="17">
-        <v>25618014</v>
+        <v>45181475</v>
       </c>
       <c r="H24" s="17">
-        <v>45181475</v>
+        <v>96008754</v>
       </c>
       <c r="I24" s="17">
-        <v>96008754</v>
+        <v>165580174</v>
       </c>
       <c r="J24" s="17">
-        <v>165995796</v>
+        <v>131315313</v>
       </c>
       <c r="K24" s="17">
-        <v>131315313</v>
+        <v>211256014</v>
       </c>
       <c r="L24" s="17">
-        <v>211256014</v>
+        <v>261896947</v>
       </c>
       <c r="M24" s="17">
-        <v>261896947</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>381861985</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>852</v>
+        <v>1133</v>
       </c>
       <c r="E25" s="13">
-        <v>1133</v>
+        <v>1071</v>
       </c>
       <c r="F25" s="13">
-        <v>1071</v>
+        <v>184</v>
       </c>
       <c r="G25" s="13">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H25" s="13">
-        <v>238</v>
+        <v>505</v>
       </c>
       <c r="I25" s="13">
-        <v>505</v>
+        <v>871</v>
       </c>
       <c r="J25" s="13">
-        <v>874</v>
+        <v>691</v>
       </c>
       <c r="K25" s="13">
-        <v>691</v>
+        <v>1112</v>
       </c>
       <c r="L25" s="13">
-        <v>1112</v>
+        <v>1378</v>
       </c>
       <c r="M25" s="13">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>51000000</v>
+        <v>76000000</v>
       </c>
       <c r="E26" s="11">
-        <v>76000000</v>
+        <v>138649318</v>
       </c>
       <c r="F26" s="11">
-        <v>138649318</v>
+        <v>139474458</v>
       </c>
       <c r="G26" s="11">
-        <v>139474458</v>
+        <v>190000000</v>
       </c>
       <c r="H26" s="11">
         <v>190000000</v>
@@ -1395,46 +1396,46 @@
         <v>190000000</v>
       </c>
       <c r="M26" s="11">
-        <v>190000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>227000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="E27" s="13">
-        <v>453</v>
+        <v>654</v>
       </c>
       <c r="F27" s="13">
-        <v>781</v>
+        <v>113</v>
       </c>
       <c r="G27" s="13">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="H27" s="13">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="I27" s="13">
-        <v>505</v>
+        <v>729</v>
       </c>
       <c r="J27" s="13">
-        <v>874</v>
+        <v>578</v>
       </c>
       <c r="K27" s="13">
-        <v>691</v>
+        <v>931</v>
       </c>
       <c r="L27" s="13">
-        <v>1112</v>
+        <v>1154</v>
       </c>
       <c r="M27" s="13">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
